--- a/linguistics/genki-study-resources/resources/tools/wordlist_E-J/lessons-3rd/lesson-4.xlsx
+++ b/linguistics/genki-study-resources/resources/tools/wordlist_E-J/lessons-3rd/lesson-4.xlsx
@@ -1564,7 +1564,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>twelth day of the month</t>
+          <t>twelfth day of the month</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1792,7 +1792,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>thiry-first day of the month</t>
+          <t>thirty-first day of the month</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
